--- a/Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/Financials/Yearly/VOD_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AEDD5-8B55-4F63-AC8D-96F4CDD9EF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VOD" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54665500</v>
+        <v>52252200</v>
       </c>
       <c r="E8" s="3">
-        <v>55909700</v>
+        <v>53441500</v>
       </c>
       <c r="F8" s="3">
-        <v>58467500</v>
+        <v>55886300</v>
       </c>
       <c r="G8" s="3">
-        <v>56794800</v>
+        <v>54287500</v>
       </c>
       <c r="H8" s="3">
-        <v>45010900</v>
+        <v>43023800</v>
       </c>
       <c r="I8" s="3">
-        <v>44652900</v>
+        <v>42681600</v>
       </c>
       <c r="J8" s="3">
-        <v>45568500</v>
+        <v>43556800</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38466900</v>
+        <v>36768700</v>
       </c>
       <c r="E9" s="3">
-        <v>40585700</v>
+        <v>38793900</v>
       </c>
       <c r="F9" s="3">
-        <v>43094100</v>
+        <v>41191600</v>
       </c>
       <c r="G9" s="3">
-        <v>41169000</v>
+        <v>39351600</v>
       </c>
       <c r="H9" s="3">
-        <v>32798600</v>
+        <v>31350600</v>
       </c>
       <c r="I9" s="3">
-        <v>31184600</v>
+        <v>29807900</v>
       </c>
       <c r="J9" s="3">
-        <v>31928800</v>
+        <v>30519200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16198600</v>
+        <v>15483500</v>
       </c>
       <c r="E10" s="3">
-        <v>15324100</v>
+        <v>14647600</v>
       </c>
       <c r="F10" s="3">
-        <v>15373400</v>
+        <v>14694700</v>
       </c>
       <c r="G10" s="3">
-        <v>15625800</v>
+        <v>14935900</v>
       </c>
       <c r="H10" s="3">
-        <v>12212300</v>
+        <v>11673200</v>
       </c>
       <c r="I10" s="3">
-        <v>13468300</v>
+        <v>12873700</v>
       </c>
       <c r="J10" s="3">
-        <v>13639700</v>
+        <v>13037500</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,26 +897,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-1496600</v>
+        <v>-1430500</v>
       </c>
       <c r="F14" s="3">
-        <v>667900</v>
+        <v>638400</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>7747100</v>
+        <v>7405100</v>
       </c>
       <c r="I14" s="3">
-        <v>9038300</v>
+        <v>8639300</v>
       </c>
       <c r="J14" s="3">
-        <v>4753900</v>
+        <v>4544100</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49619300</v>
+        <v>47428800</v>
       </c>
       <c r="E17" s="3">
-        <v>51537300</v>
+        <v>49262100</v>
       </c>
       <c r="F17" s="3">
-        <v>56918000</v>
+        <v>54405300</v>
       </c>
       <c r="G17" s="3">
-        <v>54361500</v>
+        <v>51961600</v>
       </c>
       <c r="H17" s="3">
-        <v>49604000</v>
+        <v>47414200</v>
       </c>
       <c r="I17" s="3">
-        <v>47237600</v>
+        <v>45152200</v>
       </c>
       <c r="J17" s="3">
-        <v>38974000</v>
+        <v>37253400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5046200</v>
+        <v>4823400</v>
       </c>
       <c r="E18" s="3">
-        <v>4372400</v>
+        <v>4179400</v>
       </c>
       <c r="F18" s="3">
-        <v>1549400</v>
+        <v>1481000</v>
       </c>
       <c r="G18" s="3">
-        <v>2433300</v>
+        <v>2325900</v>
       </c>
       <c r="H18" s="3">
-        <v>-4593100</v>
+        <v>-4390300</v>
       </c>
       <c r="I18" s="3">
-        <v>-2584700</v>
+        <v>-2470600</v>
       </c>
       <c r="J18" s="3">
-        <v>6594500</v>
+        <v>6303300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1003600</v>
+        <v>959300</v>
       </c>
       <c r="E20" s="3">
-        <v>1055300</v>
+        <v>1008700</v>
       </c>
       <c r="F20" s="3">
-        <v>-299300</v>
+        <v>-286100</v>
       </c>
       <c r="G20" s="3">
-        <v>1375700</v>
+        <v>1315000</v>
       </c>
       <c r="H20" s="3">
-        <v>-271200</v>
+        <v>-259200</v>
       </c>
       <c r="I20" s="3">
-        <v>2265500</v>
+        <v>2165400</v>
       </c>
       <c r="J20" s="3">
-        <v>2161000</v>
+        <v>2065600</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18276300</v>
+        <v>17489600</v>
       </c>
       <c r="E21" s="3">
-        <v>18449400</v>
+        <v>17656400</v>
       </c>
       <c r="F21" s="3">
-        <v>14989500</v>
+        <v>14350400</v>
       </c>
       <c r="G21" s="3">
-        <v>16856600</v>
+        <v>16133900</v>
       </c>
       <c r="H21" s="3">
-        <v>4015800</v>
+        <v>3853100</v>
       </c>
       <c r="I21" s="3">
-        <v>7504800</v>
+        <v>7186400</v>
       </c>
       <c r="J21" s="3">
-        <v>16650000</v>
+        <v>15928000</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1497800</v>
+        <v>1431700</v>
       </c>
       <c r="E22" s="3">
-        <v>2150400</v>
+        <v>2055500</v>
       </c>
       <c r="F22" s="3">
-        <v>1473100</v>
+        <v>1408100</v>
       </c>
       <c r="G22" s="3">
-        <v>1773600</v>
+        <v>1695300</v>
       </c>
       <c r="H22" s="3">
-        <v>1321700</v>
+        <v>1263400</v>
       </c>
       <c r="I22" s="3">
-        <v>3769100</v>
+        <v>3602700</v>
       </c>
       <c r="J22" s="3">
-        <v>3891200</v>
+        <v>3719400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4552000</v>
+        <v>4351100</v>
       </c>
       <c r="E23" s="3">
-        <v>3277300</v>
+        <v>3132600</v>
       </c>
       <c r="F23" s="3">
-        <v>-223000</v>
+        <v>-213200</v>
       </c>
       <c r="G23" s="3">
-        <v>2035400</v>
+        <v>1945500</v>
       </c>
       <c r="H23" s="3">
-        <v>-6186000</v>
+        <v>-5912900</v>
       </c>
       <c r="I23" s="3">
-        <v>-4088400</v>
+        <v>-3907900</v>
       </c>
       <c r="J23" s="3">
-        <v>4864300</v>
+        <v>4649500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1031800</v>
+        <v>-986200</v>
       </c>
       <c r="E24" s="3">
-        <v>5592000</v>
+        <v>5345200</v>
       </c>
       <c r="F24" s="3">
-        <v>5795100</v>
+        <v>5539300</v>
       </c>
       <c r="G24" s="3">
-        <v>-7126200</v>
+        <v>-6811600</v>
       </c>
       <c r="H24" s="3">
-        <v>-19464100</v>
+        <v>-18604800</v>
       </c>
       <c r="I24" s="3">
-        <v>558700</v>
+        <v>534100</v>
       </c>
       <c r="J24" s="3">
-        <v>827500</v>
+        <v>791000</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5583800</v>
+        <v>5337300</v>
       </c>
       <c r="E26" s="3">
-        <v>-2314800</v>
+        <v>-2212600</v>
       </c>
       <c r="F26" s="3">
-        <v>-6018100</v>
+        <v>-5752400</v>
       </c>
       <c r="G26" s="3">
-        <v>9161600</v>
+        <v>8757100</v>
       </c>
       <c r="H26" s="3">
-        <v>13278100</v>
+        <v>12692000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4647100</v>
+        <v>-4442000</v>
       </c>
       <c r="J26" s="3">
-        <v>4036700</v>
+        <v>3858500</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5174200</v>
+        <v>4945700</v>
       </c>
       <c r="E27" s="3">
-        <v>-2570600</v>
+        <v>-2457200</v>
       </c>
       <c r="F27" s="3">
-        <v>-6350300</v>
+        <v>-6070000</v>
       </c>
       <c r="G27" s="3">
-        <v>8929200</v>
+        <v>8535000</v>
       </c>
       <c r="H27" s="3">
-        <v>13083300</v>
+        <v>12505700</v>
       </c>
       <c r="I27" s="3">
-        <v>-4933500</v>
+        <v>-4715700</v>
       </c>
       <c r="J27" s="3">
-        <v>3982700</v>
+        <v>3806900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,34 +1263,34 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2311200</v>
+        <v>-2209200</v>
       </c>
       <c r="E29" s="3">
-        <v>-4820800</v>
+        <v>-4608000</v>
       </c>
       <c r="F29" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G29" s="3">
-        <v>-318100</v>
+        <v>-304100</v>
       </c>
       <c r="H29" s="3">
-        <v>56469700</v>
+        <v>53976700</v>
       </c>
       <c r="I29" s="3">
-        <v>5418300</v>
+        <v>5179100</v>
       </c>
       <c r="J29" s="3">
-        <v>4172900</v>
+        <v>3988700</v>
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1003600</v>
+        <v>-959300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1055300</v>
+        <v>-1008700</v>
       </c>
       <c r="F32" s="3">
-        <v>299300</v>
+        <v>286100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1375700</v>
+        <v>-1315000</v>
       </c>
       <c r="H32" s="3">
-        <v>271200</v>
+        <v>259200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2265500</v>
+        <v>-2165400</v>
       </c>
       <c r="J32" s="3">
-        <v>-2161000</v>
+        <v>-2065600</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2862900</v>
+        <v>2736500</v>
       </c>
       <c r="E33" s="3">
-        <v>-7391500</v>
+        <v>-7065200</v>
       </c>
       <c r="F33" s="3">
-        <v>-6344400</v>
+        <v>-6064400</v>
       </c>
       <c r="G33" s="3">
-        <v>8611100</v>
+        <v>8230900</v>
       </c>
       <c r="H33" s="3">
-        <v>69552900</v>
+        <v>66482400</v>
       </c>
       <c r="I33" s="3">
-        <v>484800</v>
+        <v>463400</v>
       </c>
       <c r="J33" s="3">
-        <v>8155600</v>
+        <v>7795600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2862900</v>
+        <v>2736500</v>
       </c>
       <c r="E35" s="3">
-        <v>-7391500</v>
+        <v>-7065200</v>
       </c>
       <c r="F35" s="3">
-        <v>-6344400</v>
+        <v>-6064400</v>
       </c>
       <c r="G35" s="3">
-        <v>8611100</v>
+        <v>8230900</v>
       </c>
       <c r="H35" s="3">
-        <v>69552900</v>
+        <v>66482400</v>
       </c>
       <c r="I35" s="3">
-        <v>484800</v>
+        <v>463400</v>
       </c>
       <c r="J35" s="3">
-        <v>8155600</v>
+        <v>7795600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5486400</v>
+        <v>5244200</v>
       </c>
       <c r="E41" s="3">
-        <v>10370600</v>
+        <v>9912800</v>
       </c>
       <c r="F41" s="3">
-        <v>26327400</v>
+        <v>25165100</v>
       </c>
       <c r="G41" s="3">
-        <v>16787800</v>
+        <v>16046700</v>
       </c>
       <c r="H41" s="3">
-        <v>17935800</v>
+        <v>17144000</v>
       </c>
       <c r="I41" s="3">
-        <v>8840000</v>
+        <v>8449700</v>
       </c>
       <c r="J41" s="3">
-        <v>8378700</v>
+        <v>8008800</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10323700</v>
+        <v>9867900</v>
       </c>
       <c r="E42" s="3">
-        <v>7183700</v>
+        <v>6866600</v>
       </c>
       <c r="F42" s="3">
-        <v>10273200</v>
+        <v>9819700</v>
       </c>
       <c r="G42" s="3">
-        <v>8726100</v>
+        <v>8340900</v>
       </c>
       <c r="H42" s="3">
-        <v>11042000</v>
+        <v>10554600</v>
       </c>
       <c r="I42" s="3">
-        <v>9487900</v>
+        <v>9069000</v>
       </c>
       <c r="J42" s="3">
-        <v>1553000</v>
+        <v>1484400</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10269700</v>
+        <v>9816300</v>
       </c>
       <c r="E43" s="3">
-        <v>9629900</v>
+        <v>9204800</v>
       </c>
       <c r="F43" s="3">
-        <v>19644900</v>
+        <v>18777600</v>
       </c>
       <c r="G43" s="3">
-        <v>19887900</v>
+        <v>19009900</v>
       </c>
       <c r="H43" s="3">
-        <v>10914100</v>
+        <v>10432300</v>
       </c>
       <c r="I43" s="3">
-        <v>5708200</v>
+        <v>5456200</v>
       </c>
       <c r="J43" s="3">
-        <v>8472600</v>
+        <v>8098500</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>682000</v>
+        <v>651900</v>
       </c>
       <c r="E44" s="3">
-        <v>676100</v>
+        <v>646300</v>
       </c>
       <c r="F44" s="3">
-        <v>1680900</v>
+        <v>1606700</v>
       </c>
       <c r="G44" s="3">
-        <v>1348700</v>
+        <v>1289200</v>
       </c>
       <c r="H44" s="3">
-        <v>1035300</v>
+        <v>989600</v>
       </c>
       <c r="I44" s="3">
-        <v>942600</v>
+        <v>901000</v>
       </c>
       <c r="J44" s="3">
-        <v>570500</v>
+        <v>545300</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1563500</v>
+        <v>1494500</v>
       </c>
       <c r="E45" s="3">
-        <v>2121100</v>
+        <v>2027400</v>
       </c>
       <c r="F45" s="3">
-        <v>7044000</v>
+        <v>6733100</v>
       </c>
       <c r="G45" s="3">
-        <v>3575400</v>
+        <v>3417600</v>
       </c>
       <c r="H45" s="3">
-        <v>504700</v>
+        <v>482500</v>
       </c>
       <c r="I45" s="3">
-        <v>4169400</v>
+        <v>3985300</v>
       </c>
       <c r="J45" s="3">
-        <v>4530900</v>
+        <v>4330900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28325200</v>
+        <v>27074700</v>
       </c>
       <c r="E46" s="3">
-        <v>29981500</v>
+        <v>28657900</v>
       </c>
       <c r="F46" s="3">
-        <v>37489100</v>
+        <v>35834100</v>
       </c>
       <c r="G46" s="3">
-        <v>32229300</v>
+        <v>30806500</v>
       </c>
       <c r="H46" s="3">
-        <v>29018900</v>
+        <v>27737800</v>
       </c>
       <c r="I46" s="3">
-        <v>25411800</v>
+        <v>24290000</v>
       </c>
       <c r="J46" s="3">
-        <v>23505500</v>
+        <v>22467800</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11465800</v>
+        <v>10959600</v>
       </c>
       <c r="E47" s="3">
-        <v>13106800</v>
+        <v>12528100</v>
       </c>
       <c r="F47" s="3">
-        <v>12798100</v>
+        <v>12233100</v>
       </c>
       <c r="G47" s="3">
-        <v>14764200</v>
+        <v>14112400</v>
       </c>
       <c r="H47" s="3">
-        <v>8142700</v>
+        <v>7783200</v>
       </c>
       <c r="I47" s="3">
-        <v>66148900</v>
+        <v>63228600</v>
       </c>
       <c r="J47" s="3">
-        <v>46225800</v>
+        <v>44185100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33248200</v>
+        <v>31780400</v>
       </c>
       <c r="E48" s="3">
-        <v>35453800</v>
+        <v>33888600</v>
       </c>
       <c r="F48" s="3">
-        <v>83375700</v>
+        <v>79694900</v>
       </c>
       <c r="G48" s="3">
-        <v>74430100</v>
+        <v>71144300</v>
       </c>
       <c r="H48" s="3">
-        <v>53645500</v>
+        <v>51277200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3">
-        <v>21897400</v>
+        <v>20930700</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50775500</v>
+        <v>48533900</v>
       </c>
       <c r="E49" s="3">
-        <v>54253500</v>
+        <v>51858400</v>
       </c>
       <c r="F49" s="3">
-        <v>137486000</v>
+        <v>131416000</v>
       </c>
       <c r="G49" s="3">
-        <v>120906000</v>
+        <v>115568000</v>
       </c>
       <c r="H49" s="3">
-        <v>109606000</v>
+        <v>104767000</v>
       </c>
       <c r="I49" s="3">
-        <v>113315000</v>
+        <v>108312000</v>
       </c>
       <c r="J49" s="3">
-        <v>69858100</v>
+        <v>66774100</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>47105000</v>
+        <v>45025500</v>
       </c>
       <c r="E52" s="3">
-        <v>48774200</v>
+        <v>46620900</v>
       </c>
       <c r="F52" s="3">
-        <v>37781400</v>
+        <v>36113500</v>
       </c>
       <c r="G52" s="3">
-        <v>38999800</v>
+        <v>37278100</v>
       </c>
       <c r="H52" s="3">
-        <v>24229800</v>
+        <v>23160100</v>
       </c>
       <c r="I52" s="3">
-        <v>3404000</v>
+        <v>3253800</v>
       </c>
       <c r="J52" s="3">
-        <v>2348800</v>
+        <v>2245100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>170920000</v>
+        <v>163374000</v>
       </c>
       <c r="E54" s="3">
-        <v>181570000</v>
+        <v>173554000</v>
       </c>
       <c r="F54" s="3">
-        <v>198500000</v>
+        <v>189736000</v>
       </c>
       <c r="G54" s="3">
-        <v>199054000</v>
+        <v>190266000</v>
       </c>
       <c r="H54" s="3">
-        <v>143017000</v>
+        <v>136703000</v>
       </c>
       <c r="I54" s="3">
-        <v>162366000</v>
+        <v>155198000</v>
       </c>
       <c r="J54" s="3">
-        <v>163836000</v>
+        <v>156603000</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7291700</v>
+        <v>6969800</v>
       </c>
       <c r="E57" s="3">
-        <v>7308100</v>
+        <v>6985500</v>
       </c>
       <c r="F57" s="3">
-        <v>8788300</v>
+        <v>8400300</v>
       </c>
       <c r="G57" s="3">
-        <v>30196300</v>
+        <v>28863200</v>
       </c>
       <c r="H57" s="3">
-        <v>5588500</v>
+        <v>5341800</v>
       </c>
       <c r="I57" s="3">
-        <v>9581800</v>
+        <v>9158800</v>
       </c>
       <c r="J57" s="3">
-        <v>5333800</v>
+        <v>5098300</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8625200</v>
+        <v>8244400</v>
       </c>
       <c r="E58" s="3">
-        <v>8708500</v>
+        <v>8324000</v>
       </c>
       <c r="F58" s="3">
-        <v>25697000</v>
+        <v>24562600</v>
       </c>
       <c r="G58" s="3">
-        <v>30780800</v>
+        <v>29421900</v>
       </c>
       <c r="H58" s="3">
-        <v>4993400</v>
+        <v>4772900</v>
       </c>
       <c r="I58" s="3">
-        <v>14914400</v>
+        <v>14256000</v>
       </c>
       <c r="J58" s="3">
-        <v>6157800</v>
+        <v>5886000</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29889900</v>
+        <v>28570400</v>
       </c>
       <c r="E59" s="3">
-        <v>33740000</v>
+        <v>32250500</v>
       </c>
       <c r="F59" s="3">
-        <v>23431600</v>
+        <v>22397200</v>
       </c>
       <c r="G59" s="3">
-        <v>18266800</v>
+        <v>17460400</v>
       </c>
       <c r="H59" s="3">
-        <v>23212100</v>
+        <v>22187400</v>
       </c>
       <c r="I59" s="3">
-        <v>18642500</v>
+        <v>17819400</v>
       </c>
       <c r="J59" s="3">
-        <v>16709200</v>
+        <v>15971500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45806800</v>
+        <v>43784500</v>
       </c>
       <c r="E60" s="3">
-        <v>49756600</v>
+        <v>47560000</v>
       </c>
       <c r="F60" s="3">
-        <v>49575900</v>
+        <v>47387200</v>
       </c>
       <c r="G60" s="3">
-        <v>46927700</v>
+        <v>44856000</v>
       </c>
       <c r="H60" s="3">
-        <v>29391000</v>
+        <v>28093500</v>
       </c>
       <c r="I60" s="3">
-        <v>33299800</v>
+        <v>31829700</v>
       </c>
       <c r="J60" s="3">
-        <v>28200800</v>
+        <v>26955800</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38301400</v>
+        <v>36610500</v>
       </c>
       <c r="E61" s="3">
-        <v>40165400</v>
+        <v>38392300</v>
       </c>
       <c r="F61" s="3">
-        <v>43186800</v>
+        <v>41280300</v>
       </c>
       <c r="G61" s="3">
-        <v>36433900</v>
+        <v>34825400</v>
       </c>
       <c r="H61" s="3">
-        <v>25053800</v>
+        <v>23947800</v>
       </c>
       <c r="I61" s="3">
-        <v>31870100</v>
+        <v>30463200</v>
       </c>
       <c r="J61" s="3">
-        <v>33291600</v>
+        <v>31821900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6279900</v>
+        <v>6002600</v>
       </c>
       <c r="E62" s="3">
-        <v>5115500</v>
+        <v>4889600</v>
       </c>
       <c r="F62" s="3">
-        <v>8032400</v>
+        <v>7677800</v>
       </c>
       <c r="G62" s="3">
-        <v>7336300</v>
+        <v>7012400</v>
       </c>
       <c r="H62" s="3">
-        <v>5893700</v>
+        <v>5633500</v>
       </c>
       <c r="I62" s="3">
-        <v>13862700</v>
+        <v>13250700</v>
       </c>
       <c r="J62" s="3">
-        <v>10549000</v>
+        <v>10083300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>91523100</v>
+        <v>87482700</v>
       </c>
       <c r="E66" s="3">
-        <v>96820500</v>
+        <v>92546200</v>
       </c>
       <c r="F66" s="3">
-        <v>100692000</v>
+        <v>96246500</v>
       </c>
       <c r="G66" s="3">
-        <v>91638200</v>
+        <v>87592600</v>
       </c>
       <c r="H66" s="3">
-        <v>59908900</v>
+        <v>57264100</v>
       </c>
       <c r="I66" s="3">
-        <v>78465700</v>
+        <v>75001700</v>
       </c>
       <c r="J66" s="3">
-        <v>73528600</v>
+        <v>70282600</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,7 +2305,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2283,21 +2318,21 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
+      <c r="G72" s="3">
+        <v>-96358700</v>
       </c>
       <c r="H72" s="3">
-        <v>-60366700</v>
+        <v>-57701700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J72" s="3">
-        <v>-98557800</v>
+        <v>-94206800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>79396500</v>
+        <v>75891400</v>
       </c>
       <c r="E76" s="3">
-        <v>84749100</v>
+        <v>81007700</v>
       </c>
       <c r="F76" s="3">
-        <v>97807700</v>
+        <v>93489800</v>
       </c>
       <c r="G76" s="3">
-        <v>107415000</v>
+        <v>102673000</v>
       </c>
       <c r="H76" s="3">
-        <v>83108100</v>
+        <v>79439100</v>
       </c>
       <c r="I76" s="3">
-        <v>83900400</v>
+        <v>80196500</v>
       </c>
       <c r="J76" s="3">
-        <v>90307100</v>
+        <v>86320300</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2862900</v>
+        <v>2736500</v>
       </c>
       <c r="E81" s="3">
-        <v>-7391500</v>
+        <v>-7065200</v>
       </c>
       <c r="F81" s="3">
-        <v>-6344400</v>
+        <v>-6064400</v>
       </c>
       <c r="G81" s="3">
-        <v>8611100</v>
+        <v>8230900</v>
       </c>
       <c r="H81" s="3">
-        <v>69552900</v>
+        <v>66482400</v>
       </c>
       <c r="I81" s="3">
-        <v>484800</v>
+        <v>463400</v>
       </c>
       <c r="J81" s="3">
-        <v>8155600</v>
+        <v>7795600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12218200</v>
+        <v>11678800</v>
       </c>
       <c r="E83" s="3">
-        <v>13012900</v>
+        <v>12438400</v>
       </c>
       <c r="F83" s="3">
-        <v>13730100</v>
+        <v>13123900</v>
       </c>
       <c r="G83" s="3">
-        <v>13038700</v>
+        <v>12463100</v>
       </c>
       <c r="H83" s="3">
-        <v>8874000</v>
+        <v>8482200</v>
       </c>
       <c r="I83" s="3">
-        <v>7818700</v>
+        <v>7473600</v>
       </c>
       <c r="J83" s="3">
-        <v>7889200</v>
+        <v>7540900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15963800</v>
+        <v>15259100</v>
       </c>
       <c r="E89" s="3">
-        <v>16695100</v>
+        <v>15958100</v>
       </c>
       <c r="F89" s="3">
-        <v>16827700</v>
+        <v>16084800</v>
       </c>
       <c r="G89" s="3">
-        <v>14869800</v>
+        <v>14213400</v>
       </c>
       <c r="H89" s="3">
-        <v>7309300</v>
+        <v>6986600</v>
       </c>
       <c r="I89" s="3">
-        <v>10357700</v>
+        <v>9900400</v>
       </c>
       <c r="J89" s="3">
-        <v>12086700</v>
+        <v>11553100</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9581800</v>
+        <v>-5516800</v>
       </c>
       <c r="E91" s="3">
-        <v>-10401100</v>
+        <v>-7051700</v>
       </c>
       <c r="F91" s="3">
-        <v>-16296000</v>
+        <v>-9273200</v>
       </c>
       <c r="G91" s="3">
-        <v>-11898900</v>
+        <v>-8217500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7891500</v>
+        <v>-4932300</v>
       </c>
       <c r="I91" s="3">
-        <v>-9057100</v>
+        <v>-4440800</v>
       </c>
       <c r="J91" s="3">
-        <v>-6980600</v>
+        <v>-4567600</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11551500</v>
+        <v>-11041500</v>
       </c>
       <c r="E94" s="3">
-        <v>-9887000</v>
+        <v>-9450500</v>
       </c>
       <c r="F94" s="3">
-        <v>-16281900</v>
+        <v>-15563100</v>
       </c>
       <c r="G94" s="3">
-        <v>-15534200</v>
+        <v>-14848400</v>
       </c>
       <c r="H94" s="3">
-        <v>36086400</v>
+        <v>34493300</v>
       </c>
       <c r="I94" s="3">
-        <v>-6744700</v>
+        <v>-6447000</v>
       </c>
       <c r="J94" s="3">
-        <v>7724800</v>
+        <v>7383800</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4601300</v>
+        <v>-4398200</v>
       </c>
       <c r="E96" s="3">
-        <v>-4359500</v>
+        <v>-4167100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4915900</v>
+        <v>-4698900</v>
       </c>
       <c r="G96" s="3">
-        <v>-4411200</v>
+        <v>-4216400</v>
       </c>
       <c r="H96" s="3">
-        <v>-5958300</v>
+        <v>-5695200</v>
       </c>
       <c r="I96" s="3">
-        <v>-5641300</v>
+        <v>-5392300</v>
       </c>
       <c r="J96" s="3">
-        <v>-7797600</v>
+        <v>-7453400</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8491300</v>
+        <v>-8116500</v>
       </c>
       <c r="E100" s="3">
-        <v>-10677000</v>
+        <v>-10205600</v>
       </c>
       <c r="F100" s="3">
-        <v>4791500</v>
+        <v>4580000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3711600</v>
+        <v>-3547700</v>
       </c>
       <c r="H100" s="3">
-        <v>-40201800</v>
+        <v>-38427000</v>
       </c>
       <c r="I100" s="3">
-        <v>-3219800</v>
+        <v>-3077600</v>
       </c>
       <c r="J100" s="3">
-        <v>-18392400</v>
+        <v>-17580500</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-508300</v>
+        <v>-485800</v>
       </c>
       <c r="E101" s="3">
-        <v>-367400</v>
+        <v>-351200</v>
       </c>
       <c r="F101" s="3">
-        <v>-1324100</v>
+        <v>-1265600</v>
       </c>
       <c r="G101" s="3">
-        <v>1144500</v>
+        <v>1093900</v>
       </c>
       <c r="H101" s="3">
-        <v>-135000</v>
+        <v>-129000</v>
       </c>
       <c r="I101" s="3">
-        <v>199500</v>
+        <v>190700</v>
       </c>
       <c r="J101" s="3">
-        <v>-406100</v>
+        <v>-388200</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4587200</v>
+        <v>-4384700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4236300</v>
+        <v>-4049300</v>
       </c>
       <c r="F102" s="3">
-        <v>4013300</v>
+        <v>3836100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3231500</v>
+        <v>-3088800</v>
       </c>
       <c r="H102" s="3">
-        <v>3058900</v>
+        <v>2923900</v>
       </c>
       <c r="I102" s="3">
-        <v>592800</v>
+        <v>566600</v>
       </c>
       <c r="J102" s="3">
-        <v>1013000</v>
+        <v>968300</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/VOD_YR_FIN.xlsx
+++ b/Financials/Yearly/VOD_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AEDD5-8B55-4F63-AC8D-96F4CDD9EF53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="VOD" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>VOD</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>52252200</v>
+        <v>47945300</v>
       </c>
       <c r="E8" s="3">
-        <v>53441500</v>
+        <v>51135000</v>
       </c>
       <c r="F8" s="3">
-        <v>55886300</v>
+        <v>52298800</v>
       </c>
       <c r="G8" s="3">
-        <v>54287500</v>
+        <v>54691400</v>
       </c>
       <c r="H8" s="3">
-        <v>43023800</v>
+        <v>53126700</v>
       </c>
       <c r="I8" s="3">
-        <v>42681600</v>
+        <v>42103900</v>
       </c>
       <c r="J8" s="3">
+        <v>41769000</v>
+      </c>
+      <c r="K8" s="3">
         <v>43556800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36768700</v>
+        <v>33115700</v>
       </c>
       <c r="E9" s="3">
-        <v>38793900</v>
+        <v>35982600</v>
       </c>
       <c r="F9" s="3">
-        <v>41191600</v>
+        <v>37964400</v>
       </c>
       <c r="G9" s="3">
-        <v>39351600</v>
+        <v>40310900</v>
       </c>
       <c r="H9" s="3">
-        <v>31350600</v>
+        <v>38510200</v>
       </c>
       <c r="I9" s="3">
-        <v>29807900</v>
+        <v>30680300</v>
       </c>
       <c r="J9" s="3">
+        <v>29170600</v>
+      </c>
+      <c r="K9" s="3">
         <v>30519200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15483500</v>
+        <v>14829600</v>
       </c>
       <c r="E10" s="3">
-        <v>14647600</v>
+        <v>15152400</v>
       </c>
       <c r="F10" s="3">
-        <v>14694700</v>
+        <v>14334400</v>
       </c>
       <c r="G10" s="3">
-        <v>14935900</v>
+        <v>14380500</v>
       </c>
       <c r="H10" s="3">
-        <v>11673200</v>
+        <v>14616600</v>
       </c>
       <c r="I10" s="3">
-        <v>12873700</v>
+        <v>11423600</v>
       </c>
       <c r="J10" s="3">
+        <v>12598500</v>
+      </c>
+      <c r="K10" s="3">
         <v>13037500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3870500</v>
       </c>
       <c r="E14" s="3">
-        <v>-1430500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>638400</v>
+        <v>-1400000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>624800</v>
       </c>
       <c r="H14" s="3">
-        <v>7405100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>8639300</v>
+        <v>7246800</v>
       </c>
       <c r="J14" s="3">
+        <v>8454600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4544100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +928,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47428800</v>
+        <v>48989500</v>
       </c>
       <c r="E17" s="3">
-        <v>49262100</v>
+        <v>46414700</v>
       </c>
       <c r="F17" s="3">
-        <v>54405300</v>
+        <v>48208800</v>
       </c>
       <c r="G17" s="3">
-        <v>51961600</v>
+        <v>53242000</v>
       </c>
       <c r="H17" s="3">
-        <v>47414200</v>
+        <v>50850600</v>
       </c>
       <c r="I17" s="3">
-        <v>45152200</v>
+        <v>46400400</v>
       </c>
       <c r="J17" s="3">
+        <v>44186800</v>
+      </c>
+      <c r="K17" s="3">
         <v>37253400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4823400</v>
+        <v>-1044200</v>
       </c>
       <c r="E18" s="3">
-        <v>4179400</v>
+        <v>4720300</v>
       </c>
       <c r="F18" s="3">
-        <v>1481000</v>
+        <v>4090100</v>
       </c>
       <c r="G18" s="3">
-        <v>2325900</v>
+        <v>1449400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4390300</v>
+        <v>2276200</v>
       </c>
       <c r="I18" s="3">
-        <v>-2470600</v>
+        <v>-4296500</v>
       </c>
       <c r="J18" s="3">
+        <v>-2417800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6303300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>959300</v>
+        <v>-51600</v>
       </c>
       <c r="E20" s="3">
-        <v>1008700</v>
+        <v>740100</v>
       </c>
       <c r="F20" s="3">
-        <v>-286100</v>
+        <v>283300</v>
       </c>
       <c r="G20" s="3">
-        <v>1315000</v>
+        <v>-608300</v>
       </c>
       <c r="H20" s="3">
-        <v>-259200</v>
+        <v>1286900</v>
       </c>
       <c r="I20" s="3">
-        <v>2165400</v>
+        <v>-253600</v>
       </c>
       <c r="J20" s="3">
+        <v>2119100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2065600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17489600</v>
+        <v>9675800</v>
       </c>
       <c r="E21" s="3">
-        <v>17656400</v>
+        <v>16907100</v>
       </c>
       <c r="F21" s="3">
-        <v>14350400</v>
+        <v>16564600</v>
       </c>
       <c r="G21" s="3">
-        <v>16133900</v>
+        <v>13704300</v>
       </c>
       <c r="H21" s="3">
-        <v>3853100</v>
+        <v>15778500</v>
       </c>
       <c r="I21" s="3">
-        <v>7186400</v>
+        <v>3763600</v>
       </c>
       <c r="J21" s="3">
+        <v>7026400</v>
+      </c>
+      <c r="K21" s="3">
         <v>15928000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1431700</v>
+        <v>1773300</v>
       </c>
       <c r="E22" s="3">
-        <v>2055500</v>
+        <v>1202300</v>
       </c>
       <c r="F22" s="3">
-        <v>1408100</v>
+        <v>1307700</v>
       </c>
       <c r="G22" s="3">
-        <v>1695300</v>
+        <v>1049700</v>
       </c>
       <c r="H22" s="3">
-        <v>1263400</v>
+        <v>1659100</v>
       </c>
       <c r="I22" s="3">
-        <v>3602700</v>
+        <v>1236300</v>
       </c>
       <c r="J22" s="3">
+        <v>3525700</v>
+      </c>
+      <c r="K22" s="3">
         <v>3719400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4351100</v>
+        <v>-2869100</v>
       </c>
       <c r="E23" s="3">
-        <v>3132600</v>
+        <v>4258000</v>
       </c>
       <c r="F23" s="3">
-        <v>-213200</v>
+        <v>3065600</v>
       </c>
       <c r="G23" s="3">
-        <v>1945500</v>
+        <v>-208600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5912900</v>
+        <v>1903900</v>
       </c>
       <c r="I23" s="3">
-        <v>-3907900</v>
+        <v>-5786500</v>
       </c>
       <c r="J23" s="3">
+        <v>-3824300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4649500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-986200</v>
+        <v>1642600</v>
       </c>
       <c r="E24" s="3">
-        <v>5345200</v>
+        <v>-965100</v>
       </c>
       <c r="F24" s="3">
-        <v>5539300</v>
+        <v>5230900</v>
       </c>
       <c r="G24" s="3">
-        <v>-6811600</v>
+        <v>5420800</v>
       </c>
       <c r="H24" s="3">
-        <v>-18604800</v>
+        <v>-6666000</v>
       </c>
       <c r="I24" s="3">
-        <v>534100</v>
+        <v>-18207000</v>
       </c>
       <c r="J24" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K24" s="3">
         <v>791000</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5337300</v>
+        <v>-4511700</v>
       </c>
       <c r="E26" s="3">
-        <v>-2212600</v>
+        <v>5223200</v>
       </c>
       <c r="F26" s="3">
-        <v>-5752400</v>
+        <v>-2165300</v>
       </c>
       <c r="G26" s="3">
-        <v>8757100</v>
+        <v>-5629400</v>
       </c>
       <c r="H26" s="3">
-        <v>12692000</v>
+        <v>8569900</v>
       </c>
       <c r="I26" s="3">
-        <v>-4442000</v>
+        <v>12420600</v>
       </c>
       <c r="J26" s="3">
+        <v>-4347000</v>
+      </c>
+      <c r="K26" s="3">
         <v>3858500</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4945700</v>
+        <v>-4924500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2457200</v>
+        <v>4840000</v>
       </c>
       <c r="F27" s="3">
-        <v>-6070000</v>
+        <v>-2404600</v>
       </c>
       <c r="G27" s="3">
-        <v>8535000</v>
+        <v>-5940200</v>
       </c>
       <c r="H27" s="3">
-        <v>12505700</v>
+        <v>8352500</v>
       </c>
       <c r="I27" s="3">
-        <v>-4715700</v>
+        <v>12238300</v>
       </c>
       <c r="J27" s="3">
+        <v>-4614900</v>
+      </c>
+      <c r="K27" s="3">
         <v>3806900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,36 +1283,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2209200</v>
+        <v>-3881400</v>
       </c>
       <c r="E29" s="3">
-        <v>-4608000</v>
+        <v>-2162000</v>
       </c>
       <c r="F29" s="3">
-        <v>5600</v>
+        <v>-4509500</v>
       </c>
       <c r="G29" s="3">
-        <v>-304100</v>
+        <v>5500</v>
       </c>
       <c r="H29" s="3">
-        <v>53976700</v>
+        <v>-297600</v>
       </c>
       <c r="I29" s="3">
-        <v>5179100</v>
+        <v>52822600</v>
       </c>
       <c r="J29" s="3">
+        <v>5068400</v>
+      </c>
+      <c r="K29" s="3">
         <v>3988700</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-959300</v>
+        <v>51600</v>
       </c>
       <c r="E32" s="3">
-        <v>-1008700</v>
+        <v>-740100</v>
       </c>
       <c r="F32" s="3">
-        <v>286100</v>
+        <v>-283300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1315000</v>
+        <v>608300</v>
       </c>
       <c r="H32" s="3">
-        <v>259200</v>
+        <v>-1286900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2165400</v>
+        <v>253600</v>
       </c>
       <c r="J32" s="3">
+        <v>-2119100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2065600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2736500</v>
+        <v>-8806000</v>
       </c>
       <c r="E33" s="3">
-        <v>-7065200</v>
+        <v>2678000</v>
       </c>
       <c r="F33" s="3">
-        <v>-6064400</v>
+        <v>-6914100</v>
       </c>
       <c r="G33" s="3">
-        <v>8230900</v>
+        <v>-5934700</v>
       </c>
       <c r="H33" s="3">
-        <v>66482400</v>
+        <v>8054900</v>
       </c>
       <c r="I33" s="3">
-        <v>463400</v>
+        <v>65060900</v>
       </c>
       <c r="J33" s="3">
+        <v>453500</v>
+      </c>
+      <c r="K33" s="3">
         <v>7795600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2736500</v>
+        <v>-8806000</v>
       </c>
       <c r="E35" s="3">
-        <v>-7065200</v>
+        <v>2678000</v>
       </c>
       <c r="F35" s="3">
-        <v>-6064400</v>
+        <v>-6914100</v>
       </c>
       <c r="G35" s="3">
-        <v>8230900</v>
+        <v>-5934700</v>
       </c>
       <c r="H35" s="3">
-        <v>66482400</v>
+        <v>8054900</v>
       </c>
       <c r="I35" s="3">
-        <v>463400</v>
+        <v>65060900</v>
       </c>
       <c r="J35" s="3">
+        <v>453500</v>
+      </c>
+      <c r="K35" s="3">
         <v>7795600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5244200</v>
+        <v>12562200</v>
       </c>
       <c r="E41" s="3">
-        <v>9912800</v>
+        <v>5132100</v>
       </c>
       <c r="F41" s="3">
-        <v>25165100</v>
+        <v>9700800</v>
       </c>
       <c r="G41" s="3">
-        <v>16046700</v>
+        <v>24627000</v>
       </c>
       <c r="H41" s="3">
-        <v>17144000</v>
+        <v>15703600</v>
       </c>
       <c r="I41" s="3">
-        <v>8449700</v>
+        <v>16777400</v>
       </c>
       <c r="J41" s="3">
+        <v>8269000</v>
+      </c>
+      <c r="K41" s="3">
         <v>8008800</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9867900</v>
+        <v>16698400</v>
       </c>
       <c r="E42" s="3">
-        <v>6866600</v>
+        <v>9656900</v>
       </c>
       <c r="F42" s="3">
-        <v>9819700</v>
+        <v>6719800</v>
       </c>
       <c r="G42" s="3">
-        <v>8340900</v>
+        <v>9609700</v>
       </c>
       <c r="H42" s="3">
-        <v>10554600</v>
+        <v>8162500</v>
       </c>
       <c r="I42" s="3">
-        <v>9069000</v>
+        <v>10328900</v>
       </c>
       <c r="J42" s="3">
+        <v>8875100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1484400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9816300</v>
+        <v>12113100</v>
       </c>
       <c r="E43" s="3">
-        <v>9204800</v>
+        <v>9606400</v>
       </c>
       <c r="F43" s="3">
-        <v>18777600</v>
+        <v>9008000</v>
       </c>
       <c r="G43" s="3">
-        <v>19009900</v>
+        <v>18376100</v>
       </c>
       <c r="H43" s="3">
-        <v>10432300</v>
+        <v>18603400</v>
       </c>
       <c r="I43" s="3">
-        <v>5456200</v>
+        <v>10209200</v>
       </c>
       <c r="J43" s="3">
+        <v>5339600</v>
+      </c>
+      <c r="K43" s="3">
         <v>8098500</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>651900</v>
+        <v>784000</v>
       </c>
       <c r="E44" s="3">
-        <v>646300</v>
+        <v>637900</v>
       </c>
       <c r="F44" s="3">
-        <v>1606700</v>
+        <v>632400</v>
       </c>
       <c r="G44" s="3">
-        <v>1289200</v>
+        <v>1572300</v>
       </c>
       <c r="H44" s="3">
-        <v>989600</v>
+        <v>1261600</v>
       </c>
       <c r="I44" s="3">
-        <v>901000</v>
+        <v>968400</v>
       </c>
       <c r="J44" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K44" s="3">
         <v>545300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1494500</v>
+        <v>1561400</v>
       </c>
       <c r="E45" s="3">
-        <v>2027400</v>
+        <v>1462500</v>
       </c>
       <c r="F45" s="3">
-        <v>6733100</v>
+        <v>1984100</v>
       </c>
       <c r="G45" s="3">
-        <v>3417600</v>
+        <v>6589100</v>
       </c>
       <c r="H45" s="3">
-        <v>482500</v>
+        <v>3344500</v>
       </c>
       <c r="I45" s="3">
-        <v>3985300</v>
+        <v>472100</v>
       </c>
       <c r="J45" s="3">
+        <v>3900100</v>
+      </c>
+      <c r="K45" s="3">
         <v>4330900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27074700</v>
+        <v>43719100</v>
       </c>
       <c r="E46" s="3">
-        <v>28657900</v>
+        <v>26495800</v>
       </c>
       <c r="F46" s="3">
-        <v>35834100</v>
+        <v>28045100</v>
       </c>
       <c r="G46" s="3">
-        <v>30806500</v>
+        <v>35067900</v>
       </c>
       <c r="H46" s="3">
-        <v>27737800</v>
+        <v>30147800</v>
       </c>
       <c r="I46" s="3">
-        <v>24290000</v>
+        <v>27144800</v>
       </c>
       <c r="J46" s="3">
+        <v>23770600</v>
+      </c>
+      <c r="K46" s="3">
         <v>22467800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10959600</v>
+        <v>10971200</v>
       </c>
       <c r="E47" s="3">
-        <v>12528100</v>
+        <v>10725300</v>
       </c>
       <c r="F47" s="3">
-        <v>12233100</v>
+        <v>12260300</v>
       </c>
       <c r="G47" s="3">
-        <v>14112400</v>
+        <v>11971500</v>
       </c>
       <c r="H47" s="3">
-        <v>7783200</v>
+        <v>13810600</v>
       </c>
       <c r="I47" s="3">
-        <v>63228600</v>
+        <v>7616800</v>
       </c>
       <c r="J47" s="3">
+        <v>61876700</v>
+      </c>
+      <c r="K47" s="3">
         <v>44185100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31780400</v>
+        <v>30120300</v>
       </c>
       <c r="E48" s="3">
-        <v>33888600</v>
+        <v>31100900</v>
       </c>
       <c r="F48" s="3">
-        <v>79694900</v>
+        <v>33164000</v>
       </c>
       <c r="G48" s="3">
-        <v>71144300</v>
+        <v>77990900</v>
       </c>
       <c r="H48" s="3">
-        <v>51277200</v>
-      </c>
-      <c r="I48" s="3" t="s">
+        <v>69623100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>50180800</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20930700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>48533900</v>
+        <v>45023500</v>
       </c>
       <c r="E49" s="3">
-        <v>51858400</v>
+        <v>47496200</v>
       </c>
       <c r="F49" s="3">
-        <v>131416000</v>
+        <v>50749600</v>
       </c>
       <c r="G49" s="3">
-        <v>115568000</v>
+        <v>128607000</v>
       </c>
       <c r="H49" s="3">
-        <v>104767000</v>
+        <v>113097000</v>
       </c>
       <c r="I49" s="3">
-        <v>108312000</v>
+        <v>102527000</v>
       </c>
       <c r="J49" s="3">
+        <v>105997000</v>
+      </c>
+      <c r="K49" s="3">
         <v>66774100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45025500</v>
+        <v>27028400</v>
       </c>
       <c r="E52" s="3">
-        <v>46620900</v>
+        <v>44062700</v>
       </c>
       <c r="F52" s="3">
-        <v>36113500</v>
+        <v>45624100</v>
       </c>
       <c r="G52" s="3">
-        <v>37278100</v>
+        <v>35341300</v>
       </c>
       <c r="H52" s="3">
-        <v>23160100</v>
+        <v>36481100</v>
       </c>
       <c r="I52" s="3">
-        <v>3253800</v>
+        <v>22664900</v>
       </c>
       <c r="J52" s="3">
+        <v>3184200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2245100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>163374000</v>
+        <v>156863000</v>
       </c>
       <c r="E54" s="3">
-        <v>173554000</v>
+        <v>159881000</v>
       </c>
       <c r="F54" s="3">
-        <v>189736000</v>
+        <v>169843000</v>
       </c>
       <c r="G54" s="3">
-        <v>190266000</v>
+        <v>185680000</v>
       </c>
       <c r="H54" s="3">
-        <v>136703000</v>
+        <v>186198000</v>
       </c>
       <c r="I54" s="3">
-        <v>155198000</v>
+        <v>133780000</v>
       </c>
       <c r="J54" s="3">
+        <v>151880000</v>
+      </c>
+      <c r="K54" s="3">
         <v>156603000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6969800</v>
+        <v>7210600</v>
       </c>
       <c r="E57" s="3">
-        <v>6985500</v>
+        <v>6820800</v>
       </c>
       <c r="F57" s="3">
-        <v>8400300</v>
+        <v>6836100</v>
       </c>
       <c r="G57" s="3">
-        <v>28863200</v>
+        <v>8220700</v>
       </c>
       <c r="H57" s="3">
-        <v>5341800</v>
+        <v>28246100</v>
       </c>
       <c r="I57" s="3">
-        <v>9158800</v>
+        <v>5227600</v>
       </c>
       <c r="J57" s="3">
+        <v>8963000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5098300</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8244400</v>
+        <v>4688500</v>
       </c>
       <c r="E58" s="3">
-        <v>8324000</v>
+        <v>11365400</v>
       </c>
       <c r="F58" s="3">
-        <v>24562600</v>
+        <v>13232000</v>
       </c>
       <c r="G58" s="3">
-        <v>29421900</v>
+        <v>30047900</v>
       </c>
       <c r="H58" s="3">
-        <v>4772900</v>
+        <v>28792900</v>
       </c>
       <c r="I58" s="3">
-        <v>14256000</v>
+        <v>4670900</v>
       </c>
       <c r="J58" s="3">
+        <v>13951200</v>
+      </c>
+      <c r="K58" s="3">
         <v>5886000</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28570400</v>
+        <v>16125200</v>
       </c>
       <c r="E59" s="3">
-        <v>32250500</v>
+        <v>24662200</v>
       </c>
       <c r="F59" s="3">
-        <v>22397200</v>
+        <v>26475000</v>
       </c>
       <c r="G59" s="3">
-        <v>17460400</v>
+        <v>20660000</v>
       </c>
       <c r="H59" s="3">
-        <v>22187400</v>
+        <v>17087100</v>
       </c>
       <c r="I59" s="3">
-        <v>17819400</v>
+        <v>21713000</v>
       </c>
       <c r="J59" s="3">
+        <v>17438400</v>
+      </c>
+      <c r="K59" s="3">
         <v>15971500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>43784500</v>
+        <v>28024300</v>
       </c>
       <c r="E60" s="3">
-        <v>47560000</v>
+        <v>42848400</v>
       </c>
       <c r="F60" s="3">
-        <v>47387200</v>
+        <v>46543100</v>
       </c>
       <c r="G60" s="3">
-        <v>44856000</v>
+        <v>46374000</v>
       </c>
       <c r="H60" s="3">
-        <v>28093500</v>
+        <v>43896900</v>
       </c>
       <c r="I60" s="3">
-        <v>31829700</v>
+        <v>27492800</v>
       </c>
       <c r="J60" s="3">
+        <v>31149200</v>
+      </c>
+      <c r="K60" s="3">
         <v>26955800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36610500</v>
+        <v>53456100</v>
       </c>
       <c r="E61" s="3">
-        <v>38392300</v>
+        <v>35827700</v>
       </c>
       <c r="F61" s="3">
-        <v>41280300</v>
+        <v>37571400</v>
       </c>
       <c r="G61" s="3">
-        <v>34825400</v>
+        <v>40397600</v>
       </c>
       <c r="H61" s="3">
-        <v>23947800</v>
+        <v>34080800</v>
       </c>
       <c r="I61" s="3">
-        <v>30463200</v>
+        <v>23435700</v>
       </c>
       <c r="J61" s="3">
+        <v>29811800</v>
+      </c>
+      <c r="K61" s="3">
         <v>31821900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6002600</v>
+        <v>5719500</v>
       </c>
       <c r="E62" s="3">
-        <v>4889600</v>
+        <v>5874300</v>
       </c>
       <c r="F62" s="3">
-        <v>7677800</v>
+        <v>4785100</v>
       </c>
       <c r="G62" s="3">
-        <v>7012400</v>
+        <v>7513600</v>
       </c>
       <c r="H62" s="3">
-        <v>5633500</v>
+        <v>6862500</v>
       </c>
       <c r="I62" s="3">
-        <v>13250700</v>
+        <v>5513100</v>
       </c>
       <c r="J62" s="3">
+        <v>12967400</v>
+      </c>
+      <c r="K62" s="3">
         <v>10083300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87482700</v>
+        <v>88547100</v>
       </c>
       <c r="E66" s="3">
-        <v>92546200</v>
+        <v>85612200</v>
       </c>
       <c r="F66" s="3">
-        <v>96246500</v>
+        <v>90567400</v>
       </c>
       <c r="G66" s="3">
-        <v>87592600</v>
+        <v>94188600</v>
       </c>
       <c r="H66" s="3">
-        <v>57264100</v>
+        <v>85719800</v>
       </c>
       <c r="I66" s="3">
-        <v>75001700</v>
+        <v>56039700</v>
       </c>
       <c r="J66" s="3">
+        <v>73398000</v>
+      </c>
+      <c r="K66" s="3">
         <v>70282600</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,9 +2438,12 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2318,21 +2456,24 @@
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="3">
-        <v>-96358700</v>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H72" s="3">
-        <v>-57701700</v>
-      </c>
-      <c r="I72" s="3" t="s">
+        <v>-94298400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-56467900</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-94206800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75891400</v>
+        <v>68315400</v>
       </c>
       <c r="E76" s="3">
-        <v>81007700</v>
+        <v>74268700</v>
       </c>
       <c r="F76" s="3">
-        <v>93489800</v>
+        <v>79275600</v>
       </c>
       <c r="G76" s="3">
-        <v>102673000</v>
+        <v>91490900</v>
       </c>
       <c r="H76" s="3">
-        <v>79439100</v>
+        <v>100478000</v>
       </c>
       <c r="I76" s="3">
-        <v>80196500</v>
+        <v>77740600</v>
       </c>
       <c r="J76" s="3">
+        <v>78481700</v>
+      </c>
+      <c r="K76" s="3">
         <v>86320300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2736500</v>
+        <v>-8806000</v>
       </c>
       <c r="E81" s="3">
-        <v>-7065200</v>
+        <v>2678000</v>
       </c>
       <c r="F81" s="3">
-        <v>-6064400</v>
+        <v>-6914100</v>
       </c>
       <c r="G81" s="3">
-        <v>8230900</v>
+        <v>-5934700</v>
       </c>
       <c r="H81" s="3">
-        <v>66482400</v>
+        <v>8054900</v>
       </c>
       <c r="I81" s="3">
-        <v>463400</v>
+        <v>65060900</v>
       </c>
       <c r="J81" s="3">
+        <v>453500</v>
+      </c>
+      <c r="K81" s="3">
         <v>7795600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11678800</v>
+        <v>10754900</v>
       </c>
       <c r="E83" s="3">
-        <v>12438400</v>
+        <v>11429100</v>
       </c>
       <c r="F83" s="3">
-        <v>13123900</v>
+        <v>12172400</v>
       </c>
       <c r="G83" s="3">
-        <v>12463100</v>
+        <v>12843300</v>
       </c>
       <c r="H83" s="3">
-        <v>8482200</v>
+        <v>12196600</v>
       </c>
       <c r="I83" s="3">
-        <v>7473600</v>
+        <v>8300900</v>
       </c>
       <c r="J83" s="3">
+        <v>7313800</v>
+      </c>
+      <c r="K83" s="3">
         <v>7540900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15259100</v>
+        <v>14252000</v>
       </c>
       <c r="E89" s="3">
-        <v>15958100</v>
+        <v>14932800</v>
       </c>
       <c r="F89" s="3">
-        <v>16084800</v>
+        <v>15616900</v>
       </c>
       <c r="G89" s="3">
-        <v>14213400</v>
+        <v>15740900</v>
       </c>
       <c r="H89" s="3">
-        <v>6986600</v>
+        <v>13909500</v>
       </c>
       <c r="I89" s="3">
-        <v>9900400</v>
+        <v>6837200</v>
       </c>
       <c r="J89" s="3">
+        <v>9688800</v>
+      </c>
+      <c r="K89" s="3">
         <v>11553100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5516800</v>
+        <v>-5548200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7051700</v>
+        <v>-5398900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9273200</v>
+        <v>-6900900</v>
       </c>
       <c r="G91" s="3">
-        <v>-8217500</v>
+        <v>-9075000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4932300</v>
+        <v>-8041800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4440800</v>
+        <v>-4826800</v>
       </c>
       <c r="J91" s="3">
+        <v>-4345900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4567600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11041500</v>
+        <v>-10120300</v>
       </c>
       <c r="E94" s="3">
-        <v>-9450500</v>
+        <v>-10805400</v>
       </c>
       <c r="F94" s="3">
-        <v>-15563100</v>
+        <v>-9248500</v>
       </c>
       <c r="G94" s="3">
-        <v>-14848400</v>
+        <v>-15230400</v>
       </c>
       <c r="H94" s="3">
-        <v>34493300</v>
+        <v>-14530900</v>
       </c>
       <c r="I94" s="3">
-        <v>-6447000</v>
+        <v>33755800</v>
       </c>
       <c r="J94" s="3">
+        <v>-6309100</v>
+      </c>
+      <c r="K94" s="3">
         <v>7383800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4398200</v>
+        <v>-4462300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4167100</v>
+        <v>-4304200</v>
       </c>
       <c r="F96" s="3">
-        <v>-4698900</v>
+        <v>-4078000</v>
       </c>
       <c r="G96" s="3">
-        <v>-4216400</v>
+        <v>-4598400</v>
       </c>
       <c r="H96" s="3">
-        <v>-5695200</v>
+        <v>-4126300</v>
       </c>
       <c r="I96" s="3">
-        <v>-5392300</v>
+        <v>-5573400</v>
       </c>
       <c r="J96" s="3">
+        <v>-5277000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7453400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8116500</v>
+        <v>4871800</v>
       </c>
       <c r="E100" s="3">
-        <v>-10205600</v>
+        <v>-7942900</v>
       </c>
       <c r="F100" s="3">
-        <v>4580000</v>
+        <v>-9987400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3547700</v>
+        <v>4482000</v>
       </c>
       <c r="H100" s="3">
-        <v>-38427000</v>
+        <v>-3471900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3077600</v>
+        <v>-37605400</v>
       </c>
       <c r="J100" s="3">
+        <v>-3011800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-17580500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-485800</v>
+        <v>12100</v>
       </c>
       <c r="E101" s="3">
-        <v>-351200</v>
+        <v>-475400</v>
       </c>
       <c r="F101" s="3">
-        <v>-1265600</v>
+        <v>-343700</v>
       </c>
       <c r="G101" s="3">
-        <v>1093900</v>
+        <v>-1238500</v>
       </c>
       <c r="H101" s="3">
-        <v>-129000</v>
+        <v>1070600</v>
       </c>
       <c r="I101" s="3">
-        <v>190700</v>
+        <v>-126300</v>
       </c>
       <c r="J101" s="3">
+        <v>186700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-388200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4384700</v>
+        <v>9015700</v>
       </c>
       <c r="E102" s="3">
-        <v>-4049300</v>
+        <v>-4291000</v>
       </c>
       <c r="F102" s="3">
-        <v>3836100</v>
+        <v>-3962700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3088800</v>
+        <v>3754100</v>
       </c>
       <c r="H102" s="3">
-        <v>2923900</v>
+        <v>-3022800</v>
       </c>
       <c r="I102" s="3">
-        <v>566600</v>
+        <v>2861400</v>
       </c>
       <c r="J102" s="3">
+        <v>554500</v>
+      </c>
+      <c r="K102" s="3">
         <v>968300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
